--- a/Team-Data/2011-12/1-9-2011-12.xlsx
+++ b/Team-Data/2011-12/1-9-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,118 +733,118 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>50.2</v>
       </c>
       <c r="I2" t="n">
-        <v>37.6</v>
+        <v>37.1</v>
       </c>
       <c r="J2" t="n">
-        <v>83</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.453</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="N2" t="n">
-        <v>0.399</v>
+        <v>0.395</v>
       </c>
       <c r="O2" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2</v>
+        <v>24.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.707</v>
+        <v>0.709</v>
       </c>
       <c r="R2" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="S2" t="n">
-        <v>30.6</v>
+        <v>31.3</v>
       </c>
       <c r="T2" t="n">
-        <v>41.9</v>
+        <v>42.9</v>
       </c>
       <c r="U2" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="V2" t="n">
-        <v>13.3</v>
+        <v>13.7</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>4</v>
       </c>
       <c r="AF2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="n">
         <v>7</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>6</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL2" t="n">
         <v>8</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>7</v>
       </c>
       <c r="AM2" t="n">
         <v>15</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>12</v>
@@ -786,40 +853,40 @@
         <v>25</v>
       </c>
       <c r="AR2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AS2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
         <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA2" t="n">
         <v>15</v>
       </c>
       <c r="BB2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>0.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG3" t="n">
         <v>14</v>
       </c>
-      <c r="AF3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
       <c r="AH3" t="n">
         <v>6</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -953,13 +1020,13 @@
         <v>11</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN3" t="n">
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
@@ -980,7 +1047,7 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>29</v>
@@ -989,16 +1056,16 @@
         <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
         <v>17</v>
       </c>
       <c r="BB3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -1030,160 +1097,160 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.9</v>
+        <v>37.3</v>
       </c>
       <c r="J4" t="n">
-        <v>86.2</v>
+        <v>86.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L4" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.4</v>
+        <v>16.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O4" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="P4" t="n">
-        <v>18.3</v>
+        <v>18.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.745</v>
+        <v>0.74</v>
       </c>
       <c r="R4" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="S4" t="n">
-        <v>32.7</v>
+        <v>31.9</v>
       </c>
       <c r="T4" t="n">
-        <v>45.4</v>
+        <v>45</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="W4" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="X4" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.2</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="n">
-        <v>-10.9</v>
+        <v>-11.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ4" t="n">
         <v>1</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="n">
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>28</v>
       </c>
       <c r="AP4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AS4" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AT4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW4" t="n">
         <v>30</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -1212,124 +1279,124 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8</v>
+        <v>0.778</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="J5" t="n">
-        <v>80.8</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="M5" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.383</v>
+        <v>0.406</v>
       </c>
       <c r="O5" t="n">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="P5" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S5" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="T5" t="n">
-        <v>44.6</v>
+        <v>45</v>
       </c>
       <c r="U5" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.7</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF5" t="n">
         <v>2</v>
       </c>
       <c r="AG5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
       </c>
       <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK5" t="n">
         <v>10</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11</v>
-      </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM5" t="n">
         <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1338,13 +1405,13 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU5" t="n">
         <v>2</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AW5" t="n">
         <v>18</v>
@@ -1356,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -1472,25 +1539,25 @@
         <v>0.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG6" t="n">
         <v>14</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
         <v>18</v>
@@ -1505,22 +1572,22 @@
         <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>16</v>
       </c>
       <c r="AS6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT6" t="n">
         <v>14</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
@@ -1535,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
         <v>17</v>
@@ -1547,7 +1614,7 @@
         <v>15</v>
       </c>
       <c r="BC6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -1654,10 +1721,10 @@
         <v>-2.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF7" t="n">
         <v>18</v>
@@ -1669,10 +1736,10 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>26</v>
@@ -1684,16 +1751,16 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO7" t="n">
         <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR7" t="n">
         <v>24</v>
@@ -1702,7 +1769,7 @@
         <v>18</v>
       </c>
       <c r="AT7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
         <v>17</v>
@@ -1726,7 +1793,7 @@
         <v>19</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC7" t="n">
         <v>19</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -1758,139 +1825,139 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
         <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>37.8</v>
+        <v>38.8</v>
       </c>
       <c r="J8" t="n">
-        <v>79.3</v>
+        <v>80.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.477</v>
+        <v>0.483</v>
       </c>
       <c r="L8" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M8" t="n">
-        <v>19.8</v>
+        <v>19.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.288</v>
+        <v>0.28</v>
       </c>
       <c r="O8" t="n">
-        <v>20.4</v>
+        <v>21</v>
       </c>
       <c r="P8" t="n">
-        <v>27</v>
+        <v>27.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>8.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.2</v>
+        <v>32.8</v>
       </c>
       <c r="T8" t="n">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="X8" t="n">
         <v>4.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="AA8" t="n">
         <v>22.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.7</v>
+        <v>104</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL8" t="n">
         <v>21</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,10 +1966,10 @@
         <v>19</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA8" t="n">
         <v>5</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -1940,103 +2007,103 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.222</v>
+        <v>0.25</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>32.3</v>
+        <v>32.9</v>
       </c>
       <c r="J9" t="n">
-        <v>78</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.415</v>
+        <v>0.417</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="M9" t="n">
-        <v>13.9</v>
+        <v>15.1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="O9" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="P9" t="n">
-        <v>17.2</v>
+        <v>17.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R9" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="T9" t="n">
-        <v>38.6</v>
+        <v>38.8</v>
       </c>
       <c r="U9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="V9" t="n">
-        <v>16.7</v>
+        <v>16.4</v>
       </c>
       <c r="W9" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>82.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-11.8</v>
+        <v>-10.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>25</v>
@@ -2045,10 +2112,10 @@
         <v>25</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2057,10 +2124,10 @@
         <v>29</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
         <v>29</v>
@@ -2069,31 +2136,31 @@
         <v>28</v>
       </c>
       <c r="AU9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV9" t="n">
         <v>27</v>
       </c>
       <c r="AW9" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
       </c>
       <c r="AY9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB9" t="n">
         <v>30</v>
       </c>
       <c r="BC9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -2200,31 +2267,31 @@
         <v>-6.3</v>
       </c>
       <c r="AD10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI10" t="n">
         <v>19</v>
       </c>
-      <c r="AE10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>18</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="n">
         <v>18</v>
@@ -2233,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>20</v>
@@ -2245,10 +2312,10 @@
         <v>21</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
@@ -2269,7 +2336,7 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>-6.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
@@ -2400,19 +2467,19 @@
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL11" t="n">
         <v>7</v>
       </c>
-      <c r="AK11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>6</v>
-      </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
         <v>30</v>
@@ -2421,22 +2488,22 @@
         <v>30</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
       </c>
       <c r="AS11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2454,7 +2521,7 @@
         <v>30</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -2486,100 +2553,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.75</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>32.9</v>
+        <v>33.3</v>
       </c>
       <c r="J12" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.409</v>
+        <v>0.414</v>
       </c>
       <c r="L12" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="M12" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="N12" t="n">
-        <v>0.402</v>
+        <v>0.412</v>
       </c>
       <c r="O12" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="P12" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.777</v>
+        <v>0.784</v>
       </c>
       <c r="R12" t="n">
         <v>13</v>
       </c>
       <c r="S12" t="n">
-        <v>31.9</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
-        <v>44.9</v>
+        <v>45.1</v>
       </c>
       <c r="U12" t="n">
         <v>17.8</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>92.2</v>
+        <v>93</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
         <v>15</v>
@@ -2588,7 +2655,7 @@
         <v>27</v>
       </c>
       <c r="AL12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM12" t="n">
         <v>24</v>
@@ -2597,34 +2664,34 @@
         <v>3</v>
       </c>
       <c r="AO12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AR12" t="n">
         <v>5</v>
       </c>
-      <c r="AP12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>3</v>
-      </c>
       <c r="AS12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW12" t="n">
         <v>11</v>
       </c>
-      <c r="AT12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>9</v>
-      </c>
       <c r="AX12" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
@@ -2633,13 +2700,13 @@
         <v>24</v>
       </c>
       <c r="BA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="BC12" t="n">
         <v>10</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>21</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>13</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2816,7 @@
         <v>30</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
@@ -2767,16 +2834,16 @@
         <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL13" t="n">
         <v>13</v>
       </c>
       <c r="AM13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
         <v>8</v>
@@ -2788,7 +2855,7 @@
         <v>30</v>
       </c>
       <c r="AR13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS13" t="n">
         <v>30</v>
@@ -2800,13 +2867,13 @@
         <v>6</v>
       </c>
       <c r="AV13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY13" t="n">
         <v>1</v>
@@ -2821,7 +2888,7 @@
         <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -2931,22 +2998,22 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
         <v>7</v>
@@ -2961,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
@@ -2979,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
         <v>28</v>
@@ -2994,10 +3061,10 @@
         <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -3110,28 +3177,28 @@
         <v>-4</v>
       </c>
       <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
         <v>19</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>20</v>
       </c>
       <c r="AF15" t="n">
         <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3143,7 +3210,7 @@
         <v>30</v>
       </c>
       <c r="AO15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3158,34 +3225,34 @@
         <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AV15" t="n">
         <v>23</v>
       </c>
       <c r="AW15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX15" t="n">
         <v>20</v>
       </c>
       <c r="AY15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB15" t="n">
         <v>23</v>
       </c>
       <c r="BC15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>11.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -3319,7 +3386,7 @@
         <v>24</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
         <v>7</v>
@@ -3331,7 +3398,7 @@
         <v>4</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
         <v>27</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>6</v>
@@ -3504,13 +3571,13 @@
         <v>13</v>
       </c>
       <c r="AN17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP17" t="n">
         <v>25</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>20</v>
@@ -3519,16 +3586,16 @@
         <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT17" t="n">
         <v>17</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>12</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -3578,106 +3645,106 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4</v>
+        <v>35.4</v>
       </c>
       <c r="J18" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.432</v>
+        <v>0.444</v>
       </c>
       <c r="L18" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M18" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.352</v>
+        <v>0.36</v>
       </c>
       <c r="O18" t="n">
-        <v>18.2</v>
+        <v>17.3</v>
       </c>
       <c r="P18" t="n">
-        <v>25.9</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.704</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R18" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
-        <v>32.8</v>
+        <v>33.9</v>
       </c>
       <c r="T18" t="n">
-        <v>45.7</v>
+        <v>46.5</v>
       </c>
       <c r="U18" t="n">
-        <v>17.3</v>
+        <v>17.8</v>
       </c>
       <c r="V18" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="W18" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X18" t="n">
         <v>3.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>22.3</v>
+        <v>21.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>94.90000000000001</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL18" t="n">
         <v>4</v>
@@ -3689,46 +3756,46 @@
         <v>11</v>
       </c>
       <c r="AO18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP18" t="n">
         <v>11</v>
       </c>
-      <c r="AP18" t="n">
-        <v>10</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>4</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU18" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>30</v>
       </c>
       <c r="AW18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -3760,88 +3827,88 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2</v>
+        <v>0.222</v>
       </c>
       <c r="H19" t="n">
         <v>48</v>
       </c>
       <c r="I19" t="n">
-        <v>30.8</v>
+        <v>30.2</v>
       </c>
       <c r="J19" t="n">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.39</v>
+        <v>0.381</v>
       </c>
       <c r="L19" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.329</v>
+        <v>0.312</v>
       </c>
       <c r="O19" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P19" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.773</v>
+        <v>0.765</v>
       </c>
       <c r="R19" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="S19" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="T19" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
-        <v>17.8</v>
+        <v>17.1</v>
       </c>
       <c r="V19" t="n">
         <v>15.9</v>
       </c>
       <c r="W19" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="X19" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.3</v>
+        <v>21.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>87</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.6</v>
+        <v>-11.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>29</v>
@@ -3862,34 +3929,34 @@
         <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU19" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AV19" t="n">
         <v>24</v>
@@ -3898,22 +3965,22 @@
         <v>16</v>
       </c>
       <c r="AX19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA19" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BB19" t="n">
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -3942,151 +4009,151 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
         <v>6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.333</v>
+        <v>0.25</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34</v>
+        <v>33.4</v>
       </c>
       <c r="J20" t="n">
-        <v>78.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.433</v>
+        <v>0.423</v>
       </c>
       <c r="L20" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.304</v>
+        <v>0.276</v>
       </c>
       <c r="O20" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.763</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="S20" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="T20" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="V20" t="n">
         <v>15.4</v>
       </c>
-      <c r="P20" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="R20" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="T20" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="U20" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>15.6</v>
-      </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>87.3</v>
+        <v>86.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
         <v>6</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN20" t="n">
         <v>27</v>
       </c>
-      <c r="AM20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>22</v>
-      </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
         <v>5</v>
       </c>
       <c r="AT20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW20" t="n">
         <v>23</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>21</v>
       </c>
       <c r="AX20" t="n">
         <v>12</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
         <v>23</v>
@@ -4095,7 +4162,7 @@
         <v>27</v>
       </c>
       <c r="BC20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -4124,91 +4191,91 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>4</v>
       </c>
       <c r="G21" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>33.6</v>
+        <v>34</v>
       </c>
       <c r="J21" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.423</v>
+        <v>0.428</v>
       </c>
       <c r="L21" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="M21" t="n">
-        <v>23.4</v>
+        <v>25.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.308</v>
+        <v>0.318</v>
       </c>
       <c r="O21" t="n">
-        <v>22.1</v>
+        <v>21.1</v>
       </c>
       <c r="P21" t="n">
-        <v>28.1</v>
+        <v>26.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.787</v>
+        <v>0.793</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.3</v>
+        <v>39.1</v>
       </c>
       <c r="U21" t="n">
-        <v>18.9</v>
+        <v>19.3</v>
       </c>
       <c r="V21" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="W21" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="X21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.40000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
         <v>14</v>
@@ -4217,46 +4284,46 @@
         <v>6</v>
       </c>
       <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS21" t="n">
         <v>25</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>21</v>
-      </c>
       <c r="AT21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AU21" t="n">
         <v>22</v>
       </c>
       <c r="AV21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
@@ -4265,19 +4332,19 @@
         <v>18</v>
       </c>
       <c r="AY21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ21" t="n">
         <v>27</v>
       </c>
       <c r="BA21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB21" t="n">
         <v>9</v>
       </c>
       <c r="BC21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -4417,10 +4484,10 @@
         <v>8</v>
       </c>
       <c r="AO22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -4432,19 +4499,19 @@
         <v>9</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
         <v>21</v>
       </c>
       <c r="AV22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY22" t="n">
         <v>6</v>
@@ -4456,10 +4523,10 @@
         <v>11</v>
       </c>
       <c r="BB22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>4.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG23" t="n">
         <v>7</v>
@@ -4581,19 +4648,19 @@
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
       </c>
       <c r="AM23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN23" t="n">
         <v>6</v>
@@ -4608,16 +4675,16 @@
         <v>29</v>
       </c>
       <c r="AR23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AS23" t="n">
         <v>21</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV23" t="n">
         <v>8</v>
@@ -4629,16 +4696,16 @@
         <v>26</v>
       </c>
       <c r="AY23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -4670,94 +4737,94 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0.75</v>
+        <v>0.714</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J24" t="n">
-        <v>81.90000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.475</v>
+        <v>0.472</v>
       </c>
       <c r="L24" t="n">
         <v>6.3</v>
       </c>
       <c r="M24" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="N24" t="n">
         <v>0.355</v>
       </c>
       <c r="O24" t="n">
-        <v>16.3</v>
+        <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>22.1</v>
+        <v>22.6</v>
       </c>
       <c r="Q24" t="n">
         <v>0.734</v>
       </c>
       <c r="R24" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>35.9</v>
+        <v>35.4</v>
       </c>
       <c r="T24" t="n">
-        <v>46.1</v>
+        <v>45.9</v>
       </c>
       <c r="U24" t="n">
-        <v>21.9</v>
+        <v>22.3</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="X24" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>17.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>100.3</v>
+        <v>100.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
         <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>6</v>
@@ -4778,49 +4845,49 @@
         <v>16</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BA24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -4930,16 +4997,16 @@
         <v>3.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG25" t="n">
         <v>14</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
@@ -4948,10 +5015,10 @@
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>12</v>
@@ -4960,7 +5027,7 @@
         <v>8</v>
       </c>
       <c r="AN25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO25" t="n">
         <v>19</v>
@@ -4975,7 +5042,7 @@
         <v>16</v>
       </c>
       <c r="AS25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT25" t="n">
         <v>11</v>
@@ -4987,16 +5054,16 @@
         <v>6</v>
       </c>
       <c r="AW25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="n">
         <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA25" t="n">
         <v>14</v>
@@ -5005,7 +5072,7 @@
         <v>14</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -5112,10 +5179,10 @@
         <v>5.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF26" t="n">
         <v>2</v>
@@ -5133,22 +5200,22 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
         <v>22</v>
       </c>
       <c r="AM26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
         <v>21</v>
       </c>
       <c r="AO26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5157,13 +5224,13 @@
         <v>11</v>
       </c>
       <c r="AS26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT26" t="n">
         <v>8</v>
       </c>
       <c r="AU26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV26" t="n">
         <v>8</v>
@@ -5175,16 +5242,16 @@
         <v>4</v>
       </c>
       <c r="AY26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA26" t="n">
         <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
         <v>6</v>
@@ -5312,7 +5379,7 @@
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>10</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>7</v>
@@ -5366,7 +5433,7 @@
         <v>2</v>
       </c>
       <c r="BB27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>26</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -5476,13 +5543,13 @@
         <v>4.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG28" t="n">
         <v>7</v>
@@ -5491,7 +5558,7 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ28" t="n">
         <v>4</v>
@@ -5509,13 +5576,13 @@
         <v>2</v>
       </c>
       <c r="AO28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>18</v>
@@ -5524,7 +5591,7 @@
         <v>20</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
@@ -5533,22 +5600,22 @@
         <v>4</v>
       </c>
       <c r="AW28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX28" t="n">
         <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA28" t="n">
         <v>24</v>
       </c>
       <c r="BB28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>5</v>
       </c>
       <c r="G29" t="n">
-        <v>0.444</v>
+        <v>0.375</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="J29" t="n">
-        <v>75.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.446</v>
       </c>
       <c r="L29" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="M29" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="N29" t="n">
-        <v>0.342</v>
+        <v>0.368</v>
       </c>
       <c r="O29" t="n">
-        <v>15.3</v>
+        <v>14</v>
       </c>
       <c r="P29" t="n">
-        <v>19.3</v>
+        <v>18.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.793</v>
+        <v>0.767</v>
       </c>
       <c r="R29" t="n">
-        <v>8.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S29" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>22.1</v>
       </c>
       <c r="V29" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W29" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X29" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="Y29" t="n">
         <v>3.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.3</v>
+        <v>23.9</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.1</v>
+        <v>17.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>88.59999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.7</v>
+        <v>-5.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>18</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -5679,37 +5746,37 @@
         <v>29</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM29" t="n">
         <v>19</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AT29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU29" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AV29" t="n">
         <v>13</v>
@@ -5718,22 +5785,22 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB29" t="n">
         <v>26</v>
       </c>
       <c r="BC29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG30" t="n">
         <v>12</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>6</v>
@@ -5861,13 +5928,13 @@
         <v>23</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN30" t="n">
         <v>28</v>
@@ -5876,19 +5943,19 @@
         <v>10</v>
       </c>
       <c r="AP30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
         <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT30" t="n">
         <v>15</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>14</v>
       </c>
       <c r="AU30" t="n">
         <v>20</v>
@@ -5909,7 +5976,7 @@
         <v>26</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-12.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG31" t="n">
         <v>30</v>
@@ -6046,19 +6113,19 @@
         <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>22</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>19</v>
@@ -6067,28 +6134,28 @@
         <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
       </c>
       <c r="AV31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>1</v>
       </c>
       <c r="AY31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-9-2011-12</t>
+          <t>2012-01-09</t>
         </is>
       </c>
     </row>
